--- a/results/pvalue_OFFSIDES_rare_indication_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_rare_indication_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.932</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.406</t>
+          <t>0.569</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.331</t>
+          <t>0.528</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.129</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.303</t>
+          <t>-8.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.339</t>
+          <t>0.036</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.085</t>
+          <t>3.116</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
